--- a/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D038BBA0-BD22-41DD-A582-044E7840463B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF98A2-2227-4953-88A6-9FD84E1F2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -282,6 +282,206 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsersDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報に関するDAO</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント（予定）に関するDAO</t>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストの作成に関するDAO</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントに関するJavaBeans</t>
+  </si>
+  <si>
+    <t>List.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト番号・リスト作成日時・ユーザーID・終了チェックの情報を保持するJavaBeans</t>
+  </si>
+  <si>
+    <t>ListData.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストイベント番号・リスト番号・イベント番号・達成チェック・最終達成日の情報を保持するJavaBeans</t>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでログイン画面表示、POSTでログイン処理</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでセッションスコープを破棄し、ログインページへリダイレクト</t>
+    <rPh sb="14" eb="16">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserFavoriteImg.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserFavoriteVoice.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserReward.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Events.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventsType.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Events.Leveljava</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDと推し画像に関するJavaBeans</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDと推しボイスに関するJavaBeans</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDと称号・ポイントに関するJavaBeans</t>
+    <rPh sb="7" eb="9">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントの種類（仕事・家事・インドア・アウトドア）に関するJavaBeans</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントの難易度に関するJavaBeans</t>
+    <rPh sb="5" eb="8">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー1人分のJavaBeans（ID/PW/ユーザー名）</t>
+    <rPh sb="4" eb="7">
+      <t>ヒトリブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -680,18 +880,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="90.375" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -736,7 +936,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B49" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -910,10 +1110,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -921,10 +1129,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -932,10 +1148,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -943,10 +1167,18 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -954,10 +1186,18 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -965,10 +1205,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -976,10 +1224,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -987,10 +1243,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -998,10 +1262,18 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1009,10 +1281,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1020,10 +1300,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1031,10 +1319,18 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1042,10 +1338,18 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1053,10 +1357,18 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1064,8 +1376,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -1075,8 +1391,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -1086,8 +1406,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -1097,8 +1421,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -1108,8 +1436,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -1256,6 +1588,61 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1264,9 +1651,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,27 +1831,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1486,9 +1864,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF98A2-2227-4953-88A6-9FD84E1F2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D727018-6EC1-4BD6-92B7-F80702B6ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -409,14 +409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EventsType.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Events.Leveljava</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーIDと推し画像に関するJavaBeans</t>
     <rPh sb="7" eb="8">
       <t>オ</t>
@@ -483,6 +475,251 @@
     <rPh sb="28" eb="29">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでリストテーブルに接続し、分岐</t>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでCreateList.jspを表示、POSTでリスト作成のDAOに接続</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでりストテーブルに接続してList.jspに接続し、POSTをListテーブルに接続</t>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RewardServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでリストテーブル・ユーザーテーブルに接続</t>
+    <rPh sb="21" eb="23">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventLeveljava</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventType.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventEditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでEventEdit.jspを表示、POSTでEvevtsテーブルに接続</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PastListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでPastList.jspを表示、POSTでListテーブル・ユーザーテーブルに接続</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyPageServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでMyPage.jspを表示</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OsiServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでOsi.jspを表示、POSTでユーザーテーブルに接続</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserEditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでUserEdit.jspを表示、POSTでユーザーテーブルに接続</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewUserServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでNewUser.jspを表示、POSTでユーザーテーブルに接続</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通のcss</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンガメンキョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newUser.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createList.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reward.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eventEdit.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pastList.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPage.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>osi.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userEdit.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newUser.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reward.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eventEdit.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pastList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPage.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>osi.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userEdit.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +754,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,12 +839,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFEF675D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -880,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -923,7 +1221,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -936,13 +1234,13 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B49" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B50" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -961,7 +1259,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -980,7 +1278,7 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -999,7 +1297,7 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1018,7 +1316,7 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1037,7 +1335,7 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1056,7 +1354,7 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1075,7 +1373,7 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1094,7 +1392,7 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1113,7 +1411,7 @@
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1132,7 +1430,7 @@
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1151,7 +1449,7 @@
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1170,14 +1468,14 @@
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1189,14 +1487,14 @@
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1208,14 +1506,14 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1227,14 +1525,14 @@
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1246,7 +1544,7 @@
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1265,7 +1563,7 @@
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1284,7 +1582,7 @@
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1303,14 +1601,14 @@
       <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1322,14 +1620,14 @@
       <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1341,7 +1639,7 @@
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1360,7 +1658,7 @@
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1372,18 +1670,17 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1394,11 +1691,15 @@
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1409,11 +1710,15 @@
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1424,11 +1729,15 @@
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1439,11 +1748,15 @@
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1451,10 +1764,18 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1463,9 +1784,15 @@
         <v>31</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1474,9 +1801,15 @@
         <v>32</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1485,9 +1818,15 @@
         <v>33</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1496,9 +1835,15 @@
         <v>34</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1507,9 +1852,15 @@
         <v>35</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1518,8 +1869,12 @@
         <v>36</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
     </row>
@@ -1529,8 +1884,12 @@
         <v>37</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
     </row>
@@ -1540,8 +1899,12 @@
         <v>38</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
     </row>
@@ -1551,8 +1914,12 @@
         <v>39</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
     </row>
@@ -1562,8 +1929,12 @@
         <v>40</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
     </row>
@@ -1573,8 +1944,12 @@
         <v>41</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
     </row>
@@ -1584,8 +1959,12 @@
         <v>42</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
     </row>
@@ -1595,8 +1974,12 @@
         <v>43</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
     </row>
@@ -1606,8 +1989,12 @@
         <v>44</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
     </row>
@@ -1617,8 +2004,12 @@
         <v>45</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
     </row>
@@ -1628,8 +2019,12 @@
         <v>46</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
     </row>
@@ -1639,24 +2034,121 @@
         <v>47</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D52" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1831,15 +2323,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1864,18 +2368,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D727018-6EC1-4BD6-92B7-F80702B6ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55672F9-0AC4-46F1-8D99-7327FCEA2C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4455" yWindow="585" windowWidth="16095" windowHeight="10155" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,19 +500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GETでCreateList.jspを表示、POSTでリスト作成のDAOに接続</t>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GETでりストテーブルに接続してList.jspに接続し、POSTをListテーブルに接続</t>
     <rPh sb="12" eb="14">
       <t>セツゾク</t>
@@ -549,74 +536,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GETでEventEdit.jspを表示、POSTでEvevtsテーブルに接続</t>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PastListServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GETでPastList.jspを表示、POSTでListテーブル・ユーザーテーブルに接続</t>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MyPageServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GETでMyPage.jspを表示</t>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OsiServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GETでOsi.jspを表示、POSTでユーザーテーブルに接続</t>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserEditServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GETでUserEdit.jspを表示、POSTでユーザーテーブルに接続</t>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NewUserServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GETでNewUser.jspを表示、POSTでユーザーテーブルに接続</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -720,6 +656,70 @@
   </si>
   <si>
     <t>userEdit.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでnewUser.jspを表示、POSTでユーザーテーブルに接続</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでcreateList.jspを表示、POSTでリスト作成のDAOに接続</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでeventEdit.jspを表示、POSTでEvevtsテーブルに接続</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでpastList.jspを表示、POSTでListテーブル・ユーザーテーブルに接続</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでmyPage.jspを表示</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでosi.jspを表示、POSTでユーザーテーブルに接続</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETでuserEdit.jspを表示、POSTでユーザーテーブルに接続</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セツゾク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1605,7 +1605,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>56</v>
@@ -1624,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>57</v>
@@ -1676,10 +1676,10 @@
         <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1717,7 +1717,7 @@
         <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1736,7 +1736,7 @@
         <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1752,10 +1752,10 @@
         <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1771,10 +1771,10 @@
         <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1788,10 +1788,10 @@
         <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1805,10 +1805,10 @@
         <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1822,10 +1822,10 @@
         <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1839,10 +1839,10 @@
         <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1853,13 +1853,13 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1870,10 +1870,10 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
@@ -1885,10 +1885,10 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
@@ -1900,10 +1900,10 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
@@ -1915,10 +1915,10 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -1930,10 +1930,10 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -1945,10 +1945,10 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -1960,10 +1960,10 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -1975,10 +1975,10 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -1990,10 +1990,10 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -2005,10 +2005,10 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -2020,10 +2020,10 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -2035,10 +2035,10 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -2050,90 +2050,90 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D51" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D52" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D53" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D54" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D55" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D56" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D57" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D58" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -2146,9 +2146,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2323,27 +2326,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2368,9 +2359,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55672F9-0AC4-46F1-8D99-7327FCEA2C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C40A1-6193-429E-9470-AC390CCDDFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4455" yWindow="585" windowWidth="16095" windowHeight="10155" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -720,6 +720,10 @@
     <rPh sb="34" eb="36">
       <t>セツゾク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1180,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1234,7 +1238,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B50" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B58" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1670,8 +1674,13 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D27" s="8" t="s">
         <v>44</v>
       </c>
@@ -1783,7 +1792,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>44</v>
       </c>
@@ -1800,7 +1811,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
@@ -1817,7 +1830,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
@@ -1834,7 +1849,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D36" s="8" t="s">
         <v>44</v>
       </c>
@@ -1851,7 +1868,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D37" s="9" t="s">
         <v>86</v>
       </c>
@@ -1868,7 +1887,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D38" s="9" t="s">
         <v>86</v>
       </c>
@@ -1883,7 +1904,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D39" s="9" t="s">
         <v>86</v>
       </c>
@@ -1898,7 +1921,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D40" s="9" t="s">
         <v>86</v>
       </c>
@@ -1913,7 +1938,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D41" s="9" t="s">
         <v>86</v>
       </c>
@@ -1928,7 +1955,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D42" s="9" t="s">
         <v>86</v>
       </c>
@@ -1943,7 +1972,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D43" s="9" t="s">
         <v>86</v>
       </c>
@@ -1958,7 +1989,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D44" s="9" t="s">
         <v>86</v>
       </c>
@@ -1973,7 +2006,9 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D45" s="9" t="s">
         <v>86</v>
       </c>
@@ -1988,7 +2023,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D46" s="9" t="s">
         <v>86</v>
       </c>
@@ -2003,7 +2040,9 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D47" s="9" t="s">
         <v>86</v>
       </c>
@@ -2018,7 +2057,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D48" s="10" t="s">
         <v>87</v>
       </c>
@@ -2033,7 +2074,9 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D49" s="10" t="s">
         <v>87</v>
       </c>
@@ -2048,7 +2091,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D50" s="10" t="s">
         <v>87</v>
       </c>
@@ -2059,6 +2104,13 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D51" s="10" t="s">
         <v>87</v>
       </c>
@@ -2069,6 +2121,13 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D52" s="10" t="s">
         <v>87</v>
       </c>
@@ -2079,6 +2138,13 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D53" s="10" t="s">
         <v>87</v>
       </c>
@@ -2089,6 +2155,13 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D54" s="10" t="s">
         <v>87</v>
       </c>
@@ -2099,6 +2172,13 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D55" s="10" t="s">
         <v>87</v>
       </c>
@@ -2109,6 +2189,13 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D56" s="10" t="s">
         <v>87</v>
       </c>
@@ -2119,6 +2206,13 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D57" s="10" t="s">
         <v>87</v>
       </c>
@@ -2129,6 +2223,13 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D58" s="10" t="s">
         <v>87</v>
       </c>

--- a/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C40A1-6193-429E-9470-AC390CCDDFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A7CDC-DA3D-4DB8-BA2D-F7AA7B922354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="585" windowWidth="16095" windowHeight="10155" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -724,6 +724,77 @@
   </si>
   <si>
     <t>JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>osi.jspのcss</t>
+  </si>
+  <si>
+    <t>userEdit.jspのcss</t>
+  </si>
+  <si>
+    <t>common.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>login.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>newUser.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>createList.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>list.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>reward.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>eventEdit.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>pastList.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>myPage.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>osi.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>userEdit.jspのJavaScript</t>
+  </si>
+  <si>
+    <t>newUse.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createList.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reward.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eventEdit.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pastList.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPage.jspのcss</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1184,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1896,7 +1967,9 @@
       <c r="E38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1913,7 +1986,9 @@
       <c r="E39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1930,7 +2005,9 @@
       <c r="E40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1947,7 +2024,9 @@
       <c r="E41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1964,7 +2043,9 @@
       <c r="E42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1981,7 +2062,9 @@
       <c r="E43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -1998,7 +2081,9 @@
       <c r="E44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2015,7 +2100,9 @@
       <c r="E45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2032,7 +2119,9 @@
       <c r="E46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2049,7 +2138,9 @@
       <c r="E47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2066,7 +2157,9 @@
       <c r="E48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2083,7 +2176,9 @@
       <c r="E49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2100,7 +2195,9 @@
       <c r="E50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2117,7 +2214,9 @@
       <c r="E51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2134,7 +2233,9 @@
       <c r="E52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2151,7 +2252,9 @@
       <c r="E53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2168,7 +2271,9 @@
       <c r="E54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2185,7 +2290,9 @@
       <c r="E55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2202,7 +2309,9 @@
       <c r="E56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2219,7 +2328,9 @@
       <c r="E57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -2236,7 +2347,9 @@
       <c r="E58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
   </sheetData>

--- a/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A7CDC-DA3D-4DB8-BA2D-F7AA7B922354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFD70C4-3CD0-4B7D-953E-20F588E0CB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -157,25 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リストの達成数に応じて推しからのコメントがでる画面。</t>
-    <rPh sb="4" eb="6">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予定の追加、更新、削除(非表示)ができる画面</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
@@ -198,91 +179,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>過去のリストを表示できる画面</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>称号や獲得ポイントを表示し、
-推し設定ページやユーザ情報設定ページへのリンクを表示するページ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクトク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>推しの画像と音声を設定するページ</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ情報として、パスワードとユーザ名を変更するページ</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>newUser.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザの新規登録。ID、パスワード、ユーザ名を登録。</t>
-    <rPh sb="4" eb="8">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -795,6 +692,148 @@
   </si>
   <si>
     <t>myPage.jspのcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去のリストを表示できる画面⇒カレンダー表示とモーダル</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの新規登録。ID、パスワード、ユーザ名を登録</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号や獲得ポイントを表示し、
+推し設定ページやユーザ情報設定ページへのリンクを表示するページ⇒メーター(js)表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストの達成数に応じて推しからのコメントがでる画面⇒メーター(js)表示</t>
+    <rPh sb="4" eb="6">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報として、パスワードとユーザ名を変更するページ⇒アイコンをタップして編集できるようにする(js)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推しの画像と音声を設定するページ⇒ボタン押してファイルアップロード</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本篠原</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シノハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾辻本橋</t>
+    <rPh sb="0" eb="4">
+      <t>オツジモトハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スズキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1255,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1264,7 +1303,7 @@
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="90.375" customWidth="1"/>
+    <col min="6" max="6" width="103.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1305,7 +1344,9 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1319,12 +1360,14 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1343,7 +1386,9 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1362,7 +1407,9 @@
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1379,9 +1426,11 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1398,9 +1447,11 @@
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1417,9 +1468,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1436,9 +1489,11 @@
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1455,9 +1510,11 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1474,9 +1531,11 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1484,16 +1543,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1503,16 +1562,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1522,16 +1581,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1541,16 +1600,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1560,16 +1619,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1579,16 +1638,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1598,16 +1657,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1617,16 +1676,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1636,16 +1695,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1655,16 +1714,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1674,16 +1733,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1693,16 +1752,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1712,16 +1771,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1731,16 +1790,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1750,16 +1809,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1769,16 +1828,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1788,16 +1847,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1807,16 +1866,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1826,16 +1885,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1845,16 +1904,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1864,16 +1923,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1883,16 +1942,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1902,16 +1961,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1921,16 +1980,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1940,16 +1999,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1959,16 +2018,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1978,16 +2037,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1997,16 +2056,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -2016,16 +2075,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -2035,16 +2094,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -2054,16 +2113,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -2073,16 +2132,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -2092,16 +2151,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -2111,16 +2170,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -2130,16 +2189,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -2149,16 +2208,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -2168,16 +2227,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -2187,16 +2246,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -2206,16 +2265,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -2225,16 +2284,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2244,16 +2303,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2263,16 +2322,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2282,16 +2341,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2301,16 +2360,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2320,16 +2379,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2339,16 +2398,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2360,12 +2419,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2540,15 +2596,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2573,18 +2641,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
+++ b/doc/内部設計/05_ファイル構成一覧表_Team GE☆RA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFD70C4-3CD0-4B7D-953E-20F588E0CB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F354C-A037-491E-AB3D-F3942F14AF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -191,41 +191,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー情報に関するDAO</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EventDAO.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント（予定）に関するDAO</t>
-    <rPh sb="5" eb="7">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ListDAO.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストの作成に関するDAO</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -833,6 +803,83 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント（予定）に関するDAO
+・イベント表示用のメソッド
+・</t>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストの作成に関するDAO
+・リスト作成用のランダムメソッド
+・クリア回数数えるメソッド</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サクセイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報に関するDAO
+・IDPWを取得するメソッド
+・ログインチェック用のメソッド(名刺管理流用)
+・画像とボイスアップロード用のメソッド
+・ポイント計算用のメソッド？</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>メイシカンリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -937,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +1017,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1345,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1363,10 +1413,10 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1387,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1408,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1426,10 +1476,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1450,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1468,10 +1518,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
@@ -1489,10 +1539,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1510,10 +1560,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1531,19 +1581,19 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>23</v>
@@ -1551,46 +1601,46 @@
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
+      <c r="F13" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1600,16 +1650,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1619,16 +1669,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1638,16 +1688,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1657,16 +1707,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1676,16 +1726,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1695,16 +1745,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1714,16 +1764,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1733,16 +1783,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1752,16 +1802,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1771,16 +1821,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1790,16 +1840,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1809,16 +1859,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1828,16 +1878,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1847,16 +1897,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1866,16 +1916,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1885,16 +1935,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1904,16 +1954,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1923,16 +1973,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1942,16 +1992,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1961,16 +2011,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1980,16 +2030,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1999,16 +2049,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -2018,16 +2068,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -2037,16 +2087,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -2056,16 +2106,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -2075,16 +2125,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -2094,16 +2144,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -2113,16 +2163,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -2132,16 +2182,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -2151,16 +2201,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -2170,16 +2220,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -2189,16 +2239,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -2208,16 +2258,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -2227,16 +2277,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -2246,16 +2296,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -2265,16 +2315,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -2284,16 +2334,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2303,16 +2353,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2322,16 +2372,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2341,16 +2391,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2360,16 +2410,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2379,16 +2429,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2398,16 +2448,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2419,9 +2469,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2596,27 +2649,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2641,9 +2682,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>